--- a/安排190328.xlsx
+++ b/安排190328.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B92D2B6-4ED6-4A04-9055-9E9C83B30A67}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91FD8F4-1122-42FB-A353-5990AF161524}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
   <si>
     <t>读入</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -159,22 +159,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>文字提示美化</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>容错措施优化</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码规范化</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>附加内容</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>杨楚瀛、张琪</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -240,6 +224,42 @@
   </si>
   <si>
     <t>3. 文件（动）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张琪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张承扬、杨楚瀛、张琪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Visio图片绘制</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张承扬</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 随机数生成器</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -310,196 +330,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -515,65 +351,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -859,343 +651,350 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA1BC70-5743-480A-95CE-785077CB07EB}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="A4" sqref="A4:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.44140625" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
     <col min="3" max="3" width="10.44140625" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="C2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="11"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="D7" s="13"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="D9" s="13"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="3" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="9" t="s">
+      <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="3" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="C14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="3" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="9" t="s">
+      <c r="C15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="3" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="9" t="s">
+      <c r="C16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="3" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="9" t="s">
+      <c r="C17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="3" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="9" t="s">
+      <c r="C18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="3" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="9" t="s">
+      <c r="C19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="3" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="9" t="s">
+      <c r="C20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="D20" s="13"/>
-    </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>52</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>51</v>
+      <c r="A23" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>38</v>
+      <c r="D23" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
-        <v>34</v>
+      <c r="A24" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>44</v>
+      <c r="A25" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>35</v>
-      </c>
+      <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>36</v>
+      <c r="A27" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>20</v>
+        <v>58</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="D28" s="13"/>
-    </row>
-    <row r="29" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16" t="s">
+      <c r="A28" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="17"/>
-    </row>
-    <row r="30" spans="1:4" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="D29" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A10:A19"/>
-    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A11:A20"/>
+    <mergeCell ref="A4:A7"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
